--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1736587.687838089</v>
+        <v>-1738537.913666651</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>559635.0128323177</v>
+        <v>111921.9269431464</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>282.5989122545593</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>158.5007006521033</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>197.2408425286882</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>213.8524658611804</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>203.1609600883624</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>249.9819809466591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>17.29976805398285</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>79.57033125550514</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>40.14554895581863</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>258.3061874744164</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1300,19 +1300,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>198.5424032384317</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.824665607867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1421,7 +1421,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>21.25891226904058</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>197.640017326848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>20.5798640315435</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.80485990173183</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>139.0170995614178</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>195.1669062052542</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>79.98934679131069</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>53.97176941077539</v>
       </c>
       <c r="D25" t="n">
-        <v>24.29718497126803</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287482</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224538</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898732</v>
+        <v>99.11493096898677</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3080,10 +3080,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>917.7717133980684</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>983.2963030471299</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>625.0306044403794</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>625.0306044403794</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>214.0446996507719</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>214.0446996507719</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2067.976643699082</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1694.510885438002</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1304.37155346219</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>259.1560728187103</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1597.808290699805</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1597.808290699805</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.274048960885</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.808290699805</v>
+        <v>1777.208368190759</v>
       </c>
       <c r="Y5" t="n">
-        <v>1597.808290699805</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>647.7549122311767</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>647.7549122311767</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>647.7549122311767</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>358.5813018857447</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>358.5813018857447</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1494.518401093286</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C8" t="n">
-        <v>1125.555884152874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1125.555884152874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>739.76763155463</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>732.8221308054266</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>314.8583227036135</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500979</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157408</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157408</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X8" t="n">
-        <v>1881.118241157408</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y8" t="n">
-        <v>1881.118241157408</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>184.270885655116</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.270885655116</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X10" t="n">
-        <v>184.270885655116</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,16 +5036,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,34 +5057,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>280.6570073165065</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>894.5540770733951</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.889396603097</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1559.410052240715</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>582.2416896507652</v>
+        <v>399.1615145228519</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>230.225331594945</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>230.225331594945</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5209,40 +5209,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980059</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119724</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909229</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909229</v>
       </c>
       <c r="V13" t="n">
-        <v>810.2312405487826</v>
+        <v>909.3712637033426</v>
       </c>
       <c r="W13" t="n">
-        <v>810.2312405487826</v>
+        <v>619.9540936663821</v>
       </c>
       <c r="X13" t="n">
-        <v>582.2416896507652</v>
+        <v>619.9540936663821</v>
       </c>
       <c r="Y13" t="n">
-        <v>582.2416896507652</v>
+        <v>399.1615145228519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615588</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,22 +5358,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.726987855212</v>
+        <v>1314.479671120147</v>
       </c>
       <c r="N15" t="n">
-        <v>1569.24764349283</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O15" t="n">
-        <v>1818.001057576792</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P15" t="n">
-        <v>2338.301679312539</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>693.2786482925522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>524.3424653646454</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>524.3424653646454</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4293717822522</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>229.5394242843419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>229.5394242843419</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>874.927113122792</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>874.927113122792</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>874.927113122792</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.927113122792</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1031.449480746876</v>
+        <v>828.4426798345003</v>
       </c>
       <c r="N18" t="n">
-        <v>1559.410052240715</v>
+        <v>1632.854258098651</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>488.8659712700622</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C19" t="n">
-        <v>488.8659712700622</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5704,19 +5704,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1047.499844346979</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1047.499844346979</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983193</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="X19" t="n">
-        <v>670.514436100302</v>
+        <v>758.0826743100185</v>
       </c>
       <c r="Y19" t="n">
-        <v>670.514436100302</v>
+        <v>537.2900951664884</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,16 +5744,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>990.7828679390639</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C22" t="n">
-        <v>821.846685011157</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D22" t="n">
-        <v>671.7300455988212</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E22" t="n">
-        <v>523.8169520164281</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>990.7828679390639</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W22" t="n">
-        <v>990.7828679390639</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="X22" t="n">
-        <v>990.7828679390639</v>
+        <v>763.2307201361762</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.7828679390639</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,10 +5972,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1050.793780719526</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.7597025423748</v>
+        <v>579.3570368996739</v>
       </c>
       <c r="C25" t="n">
-        <v>121.7597025423748</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X25" t="n">
-        <v>303.4081673726145</v>
+        <v>981.7980808734437</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.4081673726145</v>
+        <v>761.0055017299136</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L27" t="n">
-        <v>1050.793780719526</v>
+        <v>798.7557445928455</v>
       </c>
       <c r="M27" t="n">
-        <v>1819.161927111988</v>
+        <v>1567.123890985307</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
         <v>177.05035515254</v>
@@ -6415,19 +6415,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626374</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>904.3916683255102</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2029.138566119363</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2277.891980203325</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,19 +6713,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>159.2467854211826</v>
       </c>
       <c r="K33" t="n">
-        <v>323.6581146605669</v>
+        <v>284.60434547902</v>
       </c>
       <c r="L33" t="n">
-        <v>323.6581146605669</v>
+        <v>898.5014152359088</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>1218.836734765611</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N36" t="n">
-        <v>2612.943493278838</v>
+        <v>1850.959268203227</v>
       </c>
       <c r="O36" t="n">
-        <v>2612.943493278838</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7084,7 +7084,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525398</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,34 +7187,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7239,13 +7239,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N39" t="n">
-        <v>2612.943493278838</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7318,25 +7318,25 @@
         <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7424,22 +7424,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>811.5008739770942</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045196</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7731,19 +7731,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747067</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9021,7 +9021,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9969,10 +9969,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>455.7681028892778</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>165.4220721122538</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>152.0001261887248</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>71.44463462775407</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>72.6705324754106</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>125.1750503775286</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>54.49762599698005</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>128.3339643359926</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>73.81061311648052</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>147.2202528371596</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>56.97073711857385</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>206.5336515452803</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>113.2750516878525</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3182880469443</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1297556.545705305</v>
+        <v>1297556.545705306</v>
       </c>
     </row>
     <row r="3">
@@ -26314,28 +26314,28 @@
         <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.1327398212</v>
       </c>
       <c r="D2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.35896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.3589606563</v>
+        <v>58654.35896065632</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065628</v>
+        <v>58654.35896065627</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982127</v>
@@ -26344,16 +26344,16 @@
         <v>61578.13273982127</v>
       </c>
       <c r="M2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="N2" t="n">
+        <v>61578.13273982129</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982126</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="N2" t="n">
-        <v>61578.13273982128</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982127</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982126</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963056</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112586.3083663466</v>
+        <v>112586.3083663467</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759088</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758824</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758875</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905759315</v>
-      </c>
       <c r="J4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189627</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189631</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189635</v>
@@ -26454,10 +26454,10 @@
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,31 +26473,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002542</v>
       </c>
       <c r="K5" t="n">
+        <v>97715.10582002542</v>
+      </c>
+      <c r="L5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727313.7188216749</v>
+        <v>-727429.6716855816</v>
       </c>
       <c r="C6" t="n">
-        <v>-160340.0845042072</v>
+        <v>-160340.0845042073</v>
       </c>
       <c r="D6" t="n">
-        <v>-160340.0845042072</v>
+        <v>-160340.0845042073</v>
       </c>
       <c r="E6" t="n">
-        <v>-559280.7971555318</v>
+        <v>-559378.2562815044</v>
       </c>
       <c r="F6" t="n">
-        <v>-34120.76067863622</v>
+        <v>-34218.21980460838</v>
       </c>
       <c r="G6" t="n">
-        <v>-34120.76067863619</v>
+        <v>-34218.21980460839</v>
       </c>
       <c r="H6" t="n">
-        <v>-34120.76067863622</v>
+        <v>-34218.21980460831</v>
       </c>
       <c r="I6" t="n">
-        <v>-34120.76067863626</v>
+        <v>-34218.21980460839</v>
       </c>
       <c r="J6" t="n">
         <v>-290272.285308406</v>
       </c>
       <c r="K6" t="n">
-        <v>-59343.55401210046</v>
+        <v>-59343.55401210042</v>
       </c>
       <c r="L6" t="n">
-        <v>-59343.55401210047</v>
+        <v>-59343.55401210045</v>
       </c>
       <c r="M6" t="n">
         <v>-194144.5692459375</v>
       </c>
       <c r="N6" t="n">
-        <v>-59343.55401210045</v>
+        <v>-59343.55401210044</v>
       </c>
       <c r="O6" t="n">
         <v>-113849.066115813</v>
       </c>
       <c r="P6" t="n">
-        <v>-59343.55401210047</v>
+        <v>-59343.55401210055</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,10 +26811,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>82.6739795164483</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>73.97641339517718</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>22.54869530067478</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>104.7010606740238</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>352.4313326244862</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>67.09486072465269</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>325.1273428151889</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>65.6165852899407</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>87.98059509815928</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>134.7599877442278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>58.66904626099313</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31850,7 +31850,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>107.9252528799043</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31859,10 +31859,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>117.8878668898065</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.0578460103733</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,28 +32315,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>185.2928442992126</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>143.0713543910591</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927192</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32555,31 +32555,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>375.32167434882</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,34 +32783,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>351.8516207003251</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,22 +33020,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>61.29826102999778</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318324</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.85199691801301</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>63.40284785241618</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>213.8677363986961</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>35.83627885109473</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,22 +33968,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>220.9982683546633</v>
       </c>
       <c r="N39" t="n">
-        <v>213.8677363986961</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946974</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>74.17212909489547</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,37 +34445,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>185.2928442992127</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35498,7 +35498,7 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>455.9259151401246</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
@@ -35507,10 +35507,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778055997</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206028</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>441.4588967177881</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>288.1533596602009</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>533.2935065594328</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>394.3374292233442</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>626.5877491811051</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>343.1107267700521</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>675.4226505283067</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>343.1107267700521</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>293.5842265535828</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>343.110726770052</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>268.3403581436199</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>62.65625652615832</v>
       </c>
       <c r="K33" t="n">
-        <v>60.72709196759461</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>561.8683986589164</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>287.1023536833798</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>544.5692981826448</v>
       </c>
       <c r="N39" t="n">
-        <v>561.8683986589164</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109105</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>306.4580946184805</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>313.6340689672595</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
